--- a/player_stats.xlsx
+++ b/player_stats.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
+        <v>81</v>
+      </c>
+      <c r="D5" t="n">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
-        <v>86</v>
-      </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E9" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C10" t="n">
+        <v>85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
         <v>90</v>
       </c>
-      <c r="D10" t="n">
-        <v>86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>99</v>
-      </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>94</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88</v>
+      </c>
+      <c r="D11" t="n">
+        <v>97</v>
+      </c>
+      <c r="E11" t="n">
         <v>96</v>
       </c>
-      <c r="C11" t="n">
-        <v>74</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>86</v>
       </c>
-      <c r="E11" t="n">
-        <v>71</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>95</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F12" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G12" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D13" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E13" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G13" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C14" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>87</v>
+      </c>
+      <c r="C15" t="n">
         <v>94</v>
       </c>
-      <c r="C15" t="n">
-        <v>74</v>
-      </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F15" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
